--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,58; 36,52</t>
+          <t>30,64; 36,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,31; 37,63</t>
+          <t>31,47; 37,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 37,17</t>
+          <t>30,93; 37,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,98; 48,5</t>
+          <t>40,5; 48,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,09; 49,57</t>
+          <t>44,29; 49,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,34; 54,89</t>
+          <t>49,37; 54,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,86; 56,48</t>
+          <t>49,75; 56,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,42; 66,91</t>
+          <t>61,54; 66,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,93; 42,99</t>
+          <t>39,14; 43,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,6; 46,79</t>
+          <t>42,71; 46,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,4; 47,44</t>
+          <t>42,8; 47,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,07; 58,81</t>
+          <t>54,2; 58,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 12,98</t>
+          <t>10,12; 13,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,58</t>
+          <t>11,34; 14,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 17,18</t>
+          <t>13,76; 17,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,08; 26,53</t>
+          <t>22,28; 26,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,35</t>
+          <t>16,38; 20,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,84; 22,77</t>
+          <t>18,89; 22,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 22,49</t>
+          <t>18,74; 22,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,07; 47,15</t>
+          <t>30,03; 45,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 16,19</t>
+          <t>13,57; 16,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 17,91</t>
+          <t>15,49; 17,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 19,17</t>
+          <t>16,58; 19,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,9; 35,73</t>
+          <t>27,01; 35,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,26</t>
+          <t>7,82; 13,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 14,16</t>
+          <t>7,88; 14,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,82</t>
+          <t>7,26; 12,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,89</t>
+          <t>15,72; 22,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,54</t>
+          <t>13,43; 20,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 14,86</t>
+          <t>8,4; 14,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,35</t>
+          <t>12,62; 19,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 28,7</t>
+          <t>22,62; 28,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,89</t>
+          <t>11,18; 15,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,88</t>
+          <t>8,82; 13,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 15,37</t>
+          <t>10,76; 14,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 24,51</t>
+          <t>20,29; 24,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,73; 19,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 20,49</t>
+          <t>17,4; 20,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 20,04</t>
+          <t>17,4; 20,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,73; 28,26</t>
+          <t>24,71; 28,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,51; 30,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 32,84</t>
+          <t>29,62; 32,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,32; 30,53</t>
+          <t>27,37; 30,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,74; 46,14</t>
+          <t>36,79; 45,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,78; 24,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,21</t>
+          <t>24,13; 26,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 24,9</t>
+          <t>22,83; 24,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 37,67</t>
+          <t>31,71; 37,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,64; 36,35</t>
+          <t>30,84; 36,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,47; 37,79</t>
+          <t>31,52; 38,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,93; 37,5</t>
+          <t>30,55; 37,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,29; 49,68</t>
+          <t>44,02; 49,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,37; 54,81</t>
+          <t>49,51; 54,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,75; 56,23</t>
+          <t>49,92; 56,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,14; 43,21</t>
+          <t>38,86; 42,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,71; 46,86</t>
+          <t>42,44; 46,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,8; 47,5</t>
+          <t>42,68; 47,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 13,19</t>
+          <t>10,04; 13,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,49</t>
+          <t>11,55; 14,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 17,11</t>
+          <t>13,83; 17,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 20,36</t>
+          <t>16,39; 20,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,89; 22,8</t>
+          <t>18,71; 23,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 22,7</t>
+          <t>18,6; 22,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 16,06</t>
+          <t>13,54; 16,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 17,94</t>
+          <t>15,39; 18,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 19,19</t>
+          <t>16,59; 19,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,36</t>
+          <t>7,78; 13,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 14,69</t>
+          <t>7,55; 14,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,81</t>
+          <t>7,34; 12,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,57</t>
+          <t>13,86; 20,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 14,42</t>
+          <t>8,17; 14,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 19,06</t>
+          <t>12,95; 19,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,51</t>
+          <t>11,16; 15,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,29</t>
+          <t>8,68; 13,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,99</t>
+          <t>10,9; 15,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 19,49</t>
+          <t>16,8; 19,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 20,35</t>
+          <t>17,51; 20,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 20,07</t>
+          <t>17,41; 20,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,51; 30,73</t>
+          <t>27,68; 30,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 32,77</t>
+          <t>29,66; 32,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,37; 30,51</t>
+          <t>27,22; 30,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,86</t>
+          <t>22,73; 24,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,13; 26,2</t>
+          <t>24,07; 26,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,83; 24,95</t>
+          <t>22,83; 24,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,84; 36,09</t>
+          <t>30,58; 36,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,52; 38,26</t>
+          <t>31,31; 37,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,55; 37,73</t>
+          <t>30,47; 37,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,5; 48,32</t>
+          <t>40,98; 48,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,02; 49,22</t>
+          <t>44,09; 49,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,51; 54,76</t>
+          <t>49,34; 54,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,92; 56,27</t>
+          <t>49,86; 56,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,54; 66,86</t>
+          <t>61,42; 66,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,86; 42,75</t>
+          <t>38,93; 42,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,44; 46,94</t>
+          <t>42,6; 46,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,68; 47,43</t>
+          <t>42,4; 47,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,2; 58,98</t>
+          <t>54,07; 58,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 13,19</t>
+          <t>9,95; 12,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 14,63</t>
+          <t>11,35; 14,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 17,19</t>
+          <t>13,75; 17,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,28; 26,72</t>
+          <t>22,08; 26,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 20,24</t>
+          <t>16,34; 20,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 23,0</t>
+          <t>18,84; 22,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,6; 22,38</t>
+          <t>18,76; 22,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,03; 45,62</t>
+          <t>30,07; 47,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 16,15</t>
+          <t>13,61; 16,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 18,02</t>
+          <t>15,41; 17,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 19,12</t>
+          <t>16,61; 19,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,01; 35,06</t>
+          <t>26,9; 35,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,25</t>
+          <t>7,85; 13,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,22</t>
+          <t>7,88; 14,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,75</t>
+          <t>7,22; 12,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,72; 22,22</t>
+          <t>15,65; 21,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,4</t>
+          <t>13,43; 20,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 14,72</t>
+          <t>8,39; 14,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 19,43</t>
+          <t>12,82; 19,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,62; 28,34</t>
+          <t>22,67; 28,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 15,72</t>
+          <t>11,34; 15,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,36</t>
+          <t>8,51; 12,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,02</t>
+          <t>10,81; 15,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 24,67</t>
+          <t>20,39; 24,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,8; 19,53</t>
+          <t>16,88; 19,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 20,32</t>
+          <t>17,51; 20,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 20,15</t>
+          <t>17,2; 20,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,71; 28,14</t>
+          <t>24,73; 28,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 30,65</t>
+          <t>27,78; 30,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,66; 32,95</t>
+          <t>29,54; 32,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,22; 30,37</t>
+          <t>27,32; 30,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,79; 45,4</t>
+          <t>36,74; 46,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 24,82</t>
+          <t>22,66; 24,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,07; 26,25</t>
+          <t>24,16; 26,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,83; 24,94</t>
+          <t>22,7; 24,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,71; 37,47</t>
+          <t>31,66; 37,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,2%</t>
+          <t>64,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>56,06%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,98; 48,5</t>
+          <t>40,45; 48,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,42; 66,91</t>
+          <t>61,4; 66,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,07; 58,81</t>
+          <t>53,63; 58,43</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>29,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,08; 26,53</t>
+          <t>16,26; 25,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,07; 47,15</t>
+          <t>29,12; 57,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,9; 35,73</t>
+          <t>24,45; 39,88</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>22,39%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,89</t>
+          <t>15,61; 22,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 28,7</t>
+          <t>22,93; 29,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 24,51</t>
+          <t>20,46; 24,73</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>32,77%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,73; 28,26</t>
+          <t>19,53; 27,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,74; 46,14</t>
+          <t>35,78; 51,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 37,67</t>
+          <t>29,18; 39,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,58; 36,52</t>
+          <t>30,35; 36,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,31; 37,63</t>
+          <t>31,54; 37,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 37,17</t>
+          <t>30,83; 37,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,45; 48,23</t>
+          <t>40,19; 48,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,09; 49,57</t>
+          <t>44,32; 49,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,34; 54,89</t>
+          <t>49,26; 54,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,86; 56,48</t>
+          <t>49,85; 56,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,4; 66,9</t>
+          <t>61,57; 66,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,93; 42,99</t>
+          <t>39,06; 43,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,6; 46,79</t>
+          <t>42,84; 46,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,4; 47,44</t>
+          <t>42,41; 47,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,63; 58,43</t>
+          <t>53,88; 58,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 12,98</t>
+          <t>9,84; 13,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,58</t>
+          <t>11,33; 14,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 17,18</t>
+          <t>13,83; 17,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 25,66</t>
+          <t>16,09; 25,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,35</t>
+          <t>16,43; 20,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,84; 22,77</t>
+          <t>18,83; 22,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 22,49</t>
+          <t>18,4; 22,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 57,7</t>
+          <t>28,82; 54,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 16,19</t>
+          <t>13,59; 16,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 17,91</t>
+          <t>15,33; 17,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 19,17</t>
+          <t>16,76; 19,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,45; 39,88</t>
+          <t>24,68; 39,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,26</t>
+          <t>7,8; 13,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 14,16</t>
+          <t>7,72; 14,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,82</t>
+          <t>7,18; 12,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 22,07</t>
+          <t>15,99; 22,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,54</t>
+          <t>13,54; 20,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 14,86</t>
+          <t>8,29; 14,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,35</t>
+          <t>12,83; 19,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,93; 29,08</t>
+          <t>23,14; 28,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,89</t>
+          <t>11,15; 15,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,88</t>
+          <t>8,92; 13,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 15,37</t>
+          <t>10,7; 15,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,46; 24,73</t>
+          <t>20,44; 24,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,88; 19,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 20,49</t>
+          <t>17,45; 20,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 20,04</t>
+          <t>17,18; 20,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 27,47</t>
+          <t>19,52; 27,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,56; 30,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 32,84</t>
+          <t>29,68; 32,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,32; 30,53</t>
+          <t>27,39; 30,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,78; 51,53</t>
+          <t>35,91; 52,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,75; 24,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,21</t>
+          <t>24,08; 26,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 24,9</t>
+          <t>22,86; 24,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,18; 39,21</t>
+          <t>29,37; 38,87</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>344731</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>336223</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>255182</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>227190</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>615420</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>695779</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>522805</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>483841</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>960150</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1032001</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>777987</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>711032</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>313143; 374740</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>306127; 367644</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>231382; 280446</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>206935; 248397</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>582919; 650230</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>658530; 732015</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>489959; 552914</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>463800; 504590</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>916728; 1010501</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>988573; 1083215</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>735057; 820348</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>683306; 744345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1636</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>194617</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>252875</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>317410</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>510446</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>290783</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>363940</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>405034</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>813076</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>485400</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>616815</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>722444</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1323521</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>166573; 222703</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>221262; 286132</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>285121; 351411</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>368304; 587772</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>260896; 326576</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>330519; 398504</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>364197; 444095</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>644914; 1211366</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>445760; 525093</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>568592; 662993</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>677152; 775971</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1116824; 1785608</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56335</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51238</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52734</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>121592</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>80504</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50838</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>86934</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>170402</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136839</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>102076</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>139669</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>291994</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>43027; 73773</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37003; 68307</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38865; 69024</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>103192; 141946</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64508; 98348</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38029; 66081</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>70228; 105434</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>152550; 189930</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>114570; 160279</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83648; 125659</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>116467; 164983</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>266668; 322548</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1029</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2292</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3341</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>595684</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>640335</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>625326</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>859229</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>986706</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1110557</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1014773</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1467319</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1582390</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1750892</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1640099</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2326548</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>552983; 642865</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>593785; 684369</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>575905; 671295</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>673187; 950897</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>931344; 1036340</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1053890; 1168678</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>961333; 1070121</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1310531; 1911746</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1514374; 1655188</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1674321; 1825749</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1568432; 1708508</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2084771; 2759438</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>